--- a/medicine/Psychotrope/Djarum/Djarum.xlsx
+++ b/medicine/Psychotrope/Djarum/Djarum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Djarum est une marque de cigarettes kretek (mélange de clous de girofle et de tabac) fabriquées en Indonésie. Elle a été fondée en 1951.
@@ -512,11 +524,13 @@
           <t>Activité</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1951, Oei Wie Gwan se lance dans la production des cigarettes kretek sous la marque Djarum. Après sa mort en 1963, ses deux fils, Michael Bambang et Robert Budi Hartono continuent à gérer la société[1]. 
-Basée à Jakarta, la marque est commercialisée dans un nombre de pays (Australie, Japon, Belgique, Canada, Arabie Saoudite...)[2].
-La société compte 65 000 employés en 2014[3]. Djarum est le 3e producteur de cigarettes kretek en Indonésie après Gudang Garam et Sampoerna[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1951, Oei Wie Gwan se lance dans la production des cigarettes kretek sous la marque Djarum. Après sa mort en 1963, ses deux fils, Michael Bambang et Robert Budi Hartono continuent à gérer la société. 
+Basée à Jakarta, la marque est commercialisée dans un nombre de pays (Australie, Japon, Belgique, Canada, Arabie Saoudite...).
+La société compte 65 000 employés en 2014. Djarum est le 3e producteur de cigarettes kretek en Indonésie après Gudang Garam et Sampoerna.
 </t>
         </is>
       </c>
